--- a/src/server/excelFiles/provinces locations code.xlsx
+++ b/src/server/excelFiles/provinces locations code.xlsx
@@ -22,7 +22,7 @@
     <t>province</t>
   </si>
   <si>
-    <t>district</t>
+    <t>district_code</t>
   </si>
   <si>
     <t>english_description</t>
@@ -2958,7 +2958,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3036,10 +3036,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4962,7 +4962,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6">
@@ -4975,7 +4975,7 @@
         <v>354</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6">
@@ -4988,7 +4988,7 @@
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6">
@@ -5001,7 +5001,7 @@
         <v>358</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6">
@@ -5014,7 +5014,7 @@
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6">
@@ -5027,7 +5027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6">
@@ -5040,7 +5040,7 @@
         <v>362</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6">
@@ -5053,7 +5053,7 @@
         <v>364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6">
@@ -5066,7 +5066,7 @@
         <v>366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6">
@@ -5079,7 +5079,7 @@
         <v>368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6">
@@ -5092,7 +5092,7 @@
         <v>370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6">
@@ -5105,7 +5105,7 @@
         <v>372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6">
@@ -5118,7 +5118,7 @@
         <v>374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6">
@@ -5131,7 +5131,7 @@
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="5"/>
       <c r="B137" s="5">
         <v>12</v>

--- a/src/server/excelFiles/provinces locations code.xlsx
+++ b/src/server/excelFiles/provinces locations code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="969">
   <si>
     <t>country</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>dari_description</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>افغانستان</t>
   </si>
   <si>
     <t>01</t>
@@ -3346,7 +3340,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E444"/>
+  <dimension ref="A1:E443"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -3359,7 +3353,7 @@
     <col min="5" max="5" style="13" width="29.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3376,1390 +3370,1390 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="D19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D27" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="B37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="6"/>
       <c r="D37" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="B47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="6"/>
       <c r="D47" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="D48" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="B55" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="6"/>
       <c r="D55" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="5"/>
-      <c r="B56" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="6"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="D56" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="B78" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="6"/>
       <c r="D78" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="5"/>
-      <c r="B79" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="6"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="D79" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="6" t="s">
-        <v>250</v>
-      </c>
+      <c r="B84" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="6"/>
       <c r="D84" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="5"/>
-      <c r="B85" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C85" s="6"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="D85" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="6" t="s">
-        <v>274</v>
-      </c>
+      <c r="B92" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="6"/>
       <c r="D92" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="5"/>
-      <c r="B93" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C93" s="6"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="D93" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="6" t="s">
-        <v>322</v>
-      </c>
+      <c r="B108" s="5">
+        <v>10</v>
+      </c>
+      <c r="C108" s="6"/>
       <c r="D108" s="7" t="s">
         <v>323</v>
       </c>
@@ -4769,10 +4763,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="5"/>
-      <c r="B109" s="5">
-        <v>10</v>
-      </c>
-      <c r="C109" s="6"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6">
+        <v>1001</v>
+      </c>
       <c r="D109" s="7" t="s">
         <v>325</v>
       </c>
@@ -4784,7 +4778,7 @@
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>327</v>
@@ -4797,7 +4791,7 @@
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>329</v>
@@ -4810,7 +4804,7 @@
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>331</v>
@@ -4823,7 +4817,7 @@
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>333</v>
@@ -4836,7 +4830,7 @@
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>335</v>
@@ -4849,7 +4843,7 @@
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>337</v>
@@ -4860,10 +4854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="6">
-        <v>1007</v>
-      </c>
+      <c r="B116" s="5">
+        <v>11</v>
+      </c>
+      <c r="C116" s="6"/>
       <c r="D116" s="7" t="s">
         <v>339</v>
       </c>
@@ -4873,10 +4867,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="5"/>
-      <c r="B117" s="5">
-        <v>11</v>
-      </c>
-      <c r="C117" s="6"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6">
+        <v>1101</v>
+      </c>
       <c r="D117" s="7" t="s">
         <v>341</v>
       </c>
@@ -4888,7 +4882,7 @@
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>343</v>
@@ -4901,7 +4895,7 @@
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>345</v>
@@ -4914,7 +4908,7 @@
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>347</v>
@@ -4927,7 +4921,7 @@
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>349</v>
@@ -4940,33 +4934,33 @@
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>351</v>
+        <v>135</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+        <v>136</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>137</v>
+        <v>351</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>138</v>
+        <v>352</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>353</v>
@@ -4979,7 +4973,7 @@
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>355</v>
@@ -4992,7 +4986,7 @@
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>357</v>
@@ -5005,33 +4999,33 @@
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>359</v>
+        <v>48</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>360</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>50</v>
+        <v>359</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>51</v>
+        <v>360</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>361</v>
@@ -5044,7 +5038,7 @@
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>363</v>
@@ -5057,7 +5051,7 @@
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>365</v>
@@ -5070,7 +5064,7 @@
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>367</v>
@@ -5083,7 +5077,7 @@
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>369</v>
@@ -5096,7 +5090,7 @@
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>371</v>
@@ -5109,7 +5103,7 @@
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>373</v>
@@ -5120,10 +5114,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="6">
-        <v>1119</v>
-      </c>
+      <c r="B136" s="5">
+        <v>12</v>
+      </c>
+      <c r="C136" s="6"/>
       <c r="D136" s="7" t="s">
         <v>375</v>
       </c>
@@ -5131,12 +5125,12 @@
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="5"/>
-      <c r="B137" s="5">
-        <v>12</v>
-      </c>
-      <c r="C137" s="6"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6">
+        <v>1201</v>
+      </c>
       <c r="D137" s="7" t="s">
         <v>377</v>
       </c>
@@ -5148,7 +5142,7 @@
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>379</v>
@@ -5161,7 +5155,7 @@
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>381</v>
@@ -5174,7 +5168,7 @@
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>383</v>
@@ -5187,7 +5181,7 @@
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>385</v>
@@ -5200,7 +5194,7 @@
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>387</v>
@@ -5213,7 +5207,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>389</v>
@@ -5226,7 +5220,7 @@
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>391</v>
@@ -5239,7 +5233,7 @@
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>393</v>
@@ -5252,33 +5246,33 @@
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>395</v>
+        <v>51</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>396</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>53</v>
+        <v>395</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>54</v>
+        <v>396</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>397</v>
@@ -5291,7 +5285,7 @@
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>399</v>
@@ -5303,8 +5297,8 @@
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
-      <c r="C150" s="6">
-        <v>1213</v>
+      <c r="C150" s="9">
+        <v>1214</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>401</v>
@@ -5316,8 +5310,8 @@
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
-      <c r="C151" s="9">
-        <v>1214</v>
+      <c r="C151" s="6">
+        <v>1215</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>403</v>
@@ -5330,7 +5324,7 @@
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>405</v>
@@ -5343,7 +5337,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>407</v>
@@ -5356,7 +5350,7 @@
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>409</v>
@@ -5369,7 +5363,7 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>411</v>
@@ -5380,10 +5374,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="6">
-        <v>1219</v>
-      </c>
+      <c r="B156" s="5">
+        <v>13</v>
+      </c>
+      <c r="C156" s="6"/>
       <c r="D156" s="7" t="s">
         <v>413</v>
       </c>
@@ -5393,10 +5387,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="5"/>
-      <c r="B157" s="5">
-        <v>13</v>
-      </c>
-      <c r="C157" s="6"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="6">
+        <v>1301</v>
+      </c>
       <c r="D157" s="7" t="s">
         <v>415</v>
       </c>
@@ -5408,7 +5402,7 @@
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>417</v>
@@ -5421,7 +5415,7 @@
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>419</v>
@@ -5434,7 +5428,7 @@
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>421</v>
@@ -5447,7 +5441,7 @@
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>423</v>
@@ -5460,7 +5454,7 @@
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>425</v>
@@ -5473,7 +5467,7 @@
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>427</v>
@@ -5486,7 +5480,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>429</v>
@@ -5499,33 +5493,33 @@
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>433</v>
@@ -5536,10 +5530,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="6">
-        <v>1311</v>
-      </c>
+      <c r="B168" s="5">
+        <v>14</v>
+      </c>
+      <c r="C168" s="6"/>
       <c r="D168" s="7" t="s">
         <v>435</v>
       </c>
@@ -5549,10 +5543,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="5"/>
-      <c r="B169" s="5">
-        <v>14</v>
-      </c>
-      <c r="C169" s="6"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="6">
+        <v>1401</v>
+      </c>
       <c r="D169" s="7" t="s">
         <v>437</v>
       </c>
@@ -5564,7 +5558,7 @@
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>439</v>
@@ -5577,7 +5571,7 @@
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>441</v>
@@ -5590,7 +5584,7 @@
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>443</v>
@@ -5603,7 +5597,7 @@
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>445</v>
@@ -5616,7 +5610,7 @@
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>447</v>
@@ -5629,7 +5623,7 @@
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>449</v>
@@ -5642,7 +5636,7 @@
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>451</v>
@@ -5655,7 +5649,7 @@
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>453</v>
@@ -5668,7 +5662,7 @@
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>455</v>
@@ -5681,7 +5675,7 @@
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>457</v>
@@ -5694,7 +5688,7 @@
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>459</v>
@@ -5707,7 +5701,7 @@
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>461</v>
@@ -5718,10 +5712,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="6">
-        <v>1413</v>
-      </c>
+      <c r="B182" s="5">
+        <v>15</v>
+      </c>
+      <c r="C182" s="6"/>
       <c r="D182" s="7" t="s">
         <v>463</v>
       </c>
@@ -5731,10 +5725,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="5"/>
-      <c r="B183" s="5">
-        <v>15</v>
-      </c>
-      <c r="C183" s="6"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="6">
+        <v>1501</v>
+      </c>
       <c r="D183" s="7" t="s">
         <v>465</v>
       </c>
@@ -5746,7 +5740,7 @@
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>467</v>
@@ -5759,7 +5753,7 @@
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>469</v>
@@ -5772,7 +5766,7 @@
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>471</v>
@@ -5785,7 +5779,7 @@
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>473</v>
@@ -5798,7 +5792,7 @@
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>475</v>
@@ -5811,7 +5805,7 @@
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>477</v>
@@ -5824,7 +5818,7 @@
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>479</v>
@@ -5837,7 +5831,7 @@
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>481</v>
@@ -5850,7 +5844,7 @@
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>483</v>
@@ -5863,7 +5857,7 @@
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>485</v>
@@ -5876,7 +5870,7 @@
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>487</v>
@@ -5889,7 +5883,7 @@
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>489</v>
@@ -5902,7 +5896,7 @@
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>491</v>
@@ -5915,7 +5909,7 @@
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>493</v>
@@ -5926,10 +5920,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="6">
-        <v>1515</v>
-      </c>
+      <c r="B198" s="5">
+        <v>16</v>
+      </c>
+      <c r="C198" s="6"/>
       <c r="D198" s="7" t="s">
         <v>495</v>
       </c>
@@ -5939,10 +5933,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="5"/>
-      <c r="B199" s="5">
-        <v>16</v>
-      </c>
-      <c r="C199" s="6"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6">
+        <v>1601</v>
+      </c>
       <c r="D199" s="7" t="s">
         <v>497</v>
       </c>
@@ -5954,7 +5948,7 @@
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>499</v>
@@ -5967,7 +5961,7 @@
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>501</v>
@@ -5980,7 +5974,7 @@
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>503</v>
@@ -5993,7 +5987,7 @@
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>505</v>
@@ -6006,7 +6000,7 @@
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>507</v>
@@ -6019,7 +6013,7 @@
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>509</v>
@@ -6032,7 +6026,7 @@
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>511</v>
@@ -6043,10 +6037,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="6">
-        <v>1608</v>
-      </c>
+      <c r="B207" s="5">
+        <v>17</v>
+      </c>
+      <c r="C207" s="6"/>
       <c r="D207" s="7" t="s">
         <v>513</v>
       </c>
@@ -6056,10 +6050,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="5"/>
-      <c r="B208" s="5">
-        <v>17</v>
-      </c>
-      <c r="C208" s="6"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="6">
+        <v>1701</v>
+      </c>
       <c r="D208" s="7" t="s">
         <v>515</v>
       </c>
@@ -6071,7 +6065,7 @@
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>517</v>
@@ -6084,7 +6078,7 @@
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>519</v>
@@ -6097,7 +6091,7 @@
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>521</v>
@@ -6110,7 +6104,7 @@
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>523</v>
@@ -6123,7 +6117,7 @@
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>525</v>
@@ -6136,7 +6130,7 @@
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>527</v>
@@ -6149,7 +6143,7 @@
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>529</v>
@@ -6162,7 +6156,7 @@
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>531</v>
@@ -6175,7 +6169,7 @@
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>533</v>
@@ -6188,7 +6182,7 @@
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>535</v>
@@ -6201,7 +6195,7 @@
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>537</v>
@@ -6214,7 +6208,7 @@
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>539</v>
@@ -6227,7 +6221,7 @@
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>541</v>
@@ -6240,7 +6234,7 @@
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>543</v>
@@ -6253,7 +6247,7 @@
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>545</v>
@@ -6266,33 +6260,33 @@
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>547</v>
+        <v>72</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>548</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>74</v>
+        <v>547</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>75</v>
+        <v>548</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>549</v>
@@ -6305,7 +6299,7 @@
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>551</v>
@@ -6318,7 +6312,7 @@
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>553</v>
@@ -6331,7 +6325,7 @@
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>555</v>
@@ -6344,7 +6338,7 @@
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>557</v>
@@ -6357,7 +6351,7 @@
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>559</v>
@@ -6370,7 +6364,7 @@
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>561</v>
@@ -6383,7 +6377,7 @@
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>563</v>
@@ -6396,7 +6390,7 @@
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>565</v>
@@ -6409,7 +6403,7 @@
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>567</v>
@@ -6420,10 +6414,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="6">
-        <v>1728</v>
-      </c>
+      <c r="B236" s="5">
+        <v>18</v>
+      </c>
+      <c r="C236" s="6"/>
       <c r="D236" s="7" t="s">
         <v>569</v>
       </c>
@@ -6433,10 +6427,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="5"/>
-      <c r="B237" s="5">
-        <v>18</v>
-      </c>
-      <c r="C237" s="6"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="6">
+        <v>1801</v>
+      </c>
       <c r="D237" s="7" t="s">
         <v>571</v>
       </c>
@@ -6448,7 +6442,7 @@
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>573</v>
@@ -6461,33 +6455,33 @@
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>577</v>
@@ -6500,7 +6494,7 @@
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>579</v>
@@ -6513,7 +6507,7 @@
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>581</v>
@@ -6526,7 +6520,7 @@
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D244" s="7" t="s">
         <v>583</v>
@@ -6539,7 +6533,7 @@
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>585</v>
@@ -6552,7 +6546,7 @@
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="6">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D246" s="7" t="s">
         <v>587</v>
@@ -6565,7 +6559,7 @@
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>589</v>
@@ -6578,7 +6572,7 @@
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="6">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D248" s="7" t="s">
         <v>591</v>
@@ -6591,7 +6585,7 @@
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D249" s="7" t="s">
         <v>593</v>
@@ -6604,7 +6598,7 @@
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>595</v>
@@ -6617,7 +6611,7 @@
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="6">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>597</v>
@@ -6630,7 +6624,7 @@
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="6">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D252" s="7" t="s">
         <v>599</v>
@@ -6643,7 +6637,7 @@
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="6">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>601</v>
@@ -6654,10 +6648,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="5"/>
-      <c r="B254" s="5"/>
-      <c r="C254" s="6">
-        <v>1817</v>
-      </c>
+      <c r="B254" s="5">
+        <v>19</v>
+      </c>
+      <c r="C254" s="6"/>
       <c r="D254" s="7" t="s">
         <v>603</v>
       </c>
@@ -6667,10 +6661,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="5"/>
-      <c r="B255" s="5">
-        <v>19</v>
-      </c>
-      <c r="C255" s="6"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="6">
+        <v>1901</v>
+      </c>
       <c r="D255" s="7" t="s">
         <v>605</v>
       </c>
@@ -6682,7 +6676,7 @@
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="6">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>607</v>
@@ -6695,7 +6689,7 @@
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>609</v>
@@ -6708,7 +6702,7 @@
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D258" s="7" t="s">
         <v>611</v>
@@ -6721,7 +6715,7 @@
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="6">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>613</v>
@@ -6734,7 +6728,7 @@
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="6">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D260" s="7" t="s">
         <v>615</v>
@@ -6747,7 +6741,7 @@
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="6">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>617</v>
@@ -6758,10 +6752,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="5"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="6">
-        <v>1907</v>
-      </c>
+      <c r="B262" s="5">
+        <v>20</v>
+      </c>
+      <c r="C262" s="6"/>
       <c r="D262" s="7" t="s">
         <v>619</v>
       </c>
@@ -6771,10 +6765,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="5"/>
-      <c r="B263" s="5">
-        <v>20</v>
-      </c>
-      <c r="C263" s="6"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="6">
+        <v>2001</v>
+      </c>
       <c r="D263" s="7" t="s">
         <v>621</v>
       </c>
@@ -6786,7 +6780,7 @@
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D264" s="7" t="s">
         <v>623</v>
@@ -6799,7 +6793,7 @@
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>625</v>
@@ -6812,7 +6806,7 @@
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>627</v>
@@ -6825,7 +6819,7 @@
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>629</v>
@@ -6838,7 +6832,7 @@
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D268" s="7" t="s">
         <v>631</v>
@@ -6851,7 +6845,7 @@
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D269" s="7" t="s">
         <v>633</v>
@@ -6863,8 +6857,8 @@
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
-      <c r="C270" s="6">
-        <v>2007</v>
+      <c r="C270" s="9">
+        <v>2008</v>
       </c>
       <c r="D270" s="7" t="s">
         <v>635</v>
@@ -6875,10 +6869,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="5"/>
-      <c r="B271" s="5"/>
-      <c r="C271" s="9">
-        <v>2008</v>
-      </c>
+      <c r="B271" s="5">
+        <v>21</v>
+      </c>
+      <c r="C271" s="6"/>
       <c r="D271" s="7" t="s">
         <v>637</v>
       </c>
@@ -6888,10 +6882,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="5"/>
-      <c r="B272" s="5">
-        <v>21</v>
-      </c>
-      <c r="C272" s="6"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="6">
+        <v>2101</v>
+      </c>
       <c r="D272" s="7" t="s">
         <v>639</v>
       </c>
@@ -6903,7 +6897,7 @@
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>641</v>
@@ -6916,7 +6910,7 @@
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="D274" s="7" t="s">
         <v>643</v>
@@ -6929,7 +6923,7 @@
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>645</v>
@@ -6942,7 +6936,7 @@
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>647</v>
@@ -6955,33 +6949,33 @@
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>651</v>
@@ -6994,7 +6988,7 @@
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="D280" s="7" t="s">
         <v>653</v>
@@ -7007,33 +7001,33 @@
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>657</v>
@@ -7046,7 +7040,7 @@
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D284" s="7" t="s">
         <v>659</v>
@@ -7059,7 +7053,7 @@
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>661</v>
@@ -7072,7 +7066,7 @@
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="D286" s="7" t="s">
         <v>663</v>
@@ -7083,10 +7077,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="5"/>
-      <c r="B287" s="5"/>
-      <c r="C287" s="6">
-        <v>2115</v>
-      </c>
+      <c r="B287" s="5">
+        <v>22</v>
+      </c>
+      <c r="C287" s="6"/>
       <c r="D287" s="7" t="s">
         <v>665</v>
       </c>
@@ -7096,10 +7090,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="5"/>
-      <c r="B288" s="5">
-        <v>22</v>
-      </c>
-      <c r="C288" s="6"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6">
+        <v>2201</v>
+      </c>
       <c r="D288" s="7" t="s">
         <v>667</v>
       </c>
@@ -7111,7 +7105,7 @@
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>669</v>
@@ -7124,7 +7118,7 @@
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>671</v>
@@ -7137,7 +7131,7 @@
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>673</v>
@@ -7150,7 +7144,7 @@
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="D292" s="7" t="s">
         <v>675</v>
@@ -7163,7 +7157,7 @@
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="D293" s="7" t="s">
         <v>677</v>
@@ -7176,7 +7170,7 @@
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="D294" s="7" t="s">
         <v>679</v>
@@ -7187,10 +7181,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="5"/>
-      <c r="B295" s="5"/>
-      <c r="C295" s="6">
-        <v>2207</v>
-      </c>
+      <c r="B295" s="5">
+        <v>23</v>
+      </c>
+      <c r="C295" s="6"/>
       <c r="D295" s="7" t="s">
         <v>681</v>
       </c>
@@ -7200,10 +7194,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="5"/>
-      <c r="B296" s="5">
-        <v>23</v>
-      </c>
-      <c r="C296" s="6"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="6">
+        <v>2301</v>
+      </c>
       <c r="D296" s="7" t="s">
         <v>683</v>
       </c>
@@ -7215,7 +7209,7 @@
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D297" s="7" t="s">
         <v>685</v>
@@ -7228,7 +7222,7 @@
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="D298" s="7" t="s">
         <v>687</v>
@@ -7241,7 +7235,7 @@
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="D299" s="7" t="s">
         <v>689</v>
@@ -7254,7 +7248,7 @@
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>691</v>
@@ -7267,7 +7261,7 @@
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="D301" s="7" t="s">
         <v>693</v>
@@ -7280,7 +7274,7 @@
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="D302" s="7" t="s">
         <v>695</v>
@@ -7293,7 +7287,7 @@
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>697</v>
@@ -7306,7 +7300,7 @@
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="D304" s="7" t="s">
         <v>699</v>
@@ -7319,7 +7313,7 @@
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="D305" s="7" t="s">
         <v>701</v>
@@ -7332,7 +7326,7 @@
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>703</v>
@@ -7343,10 +7337,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="5"/>
-      <c r="B307" s="5"/>
-      <c r="C307" s="6">
-        <v>2311</v>
-      </c>
+      <c r="B307" s="5">
+        <v>24</v>
+      </c>
+      <c r="C307" s="6"/>
       <c r="D307" s="7" t="s">
         <v>705</v>
       </c>
@@ -7356,10 +7350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="5"/>
-      <c r="B308" s="5">
-        <v>24</v>
-      </c>
-      <c r="C308" s="6"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="6">
+        <v>2401</v>
+      </c>
       <c r="D308" s="7" t="s">
         <v>707</v>
       </c>
@@ -7371,7 +7365,7 @@
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="D309" s="7" t="s">
         <v>709</v>
@@ -7384,7 +7378,7 @@
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="D310" s="7" t="s">
         <v>711</v>
@@ -7397,7 +7391,7 @@
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="D311" s="7" t="s">
         <v>713</v>
@@ -7410,7 +7404,7 @@
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>715</v>
@@ -7423,7 +7417,7 @@
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="D313" s="7" t="s">
         <v>717</v>
@@ -7436,7 +7430,7 @@
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="D314" s="7" t="s">
         <v>719</v>
@@ -7449,7 +7443,7 @@
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="D315" s="7" t="s">
         <v>721</v>
@@ -7460,10 +7454,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="5"/>
-      <c r="B316" s="5"/>
-      <c r="C316" s="6">
-        <v>2409</v>
-      </c>
+      <c r="B316" s="5">
+        <v>25</v>
+      </c>
+      <c r="C316" s="6"/>
       <c r="D316" s="7" t="s">
         <v>723</v>
       </c>
@@ -7473,10 +7467,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
       <c r="A317" s="5"/>
-      <c r="B317" s="5">
-        <v>25</v>
-      </c>
-      <c r="C317" s="6"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="6">
+        <v>2501</v>
+      </c>
       <c r="D317" s="7" t="s">
         <v>725</v>
       </c>
@@ -7488,7 +7482,7 @@
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="D318" s="7" t="s">
         <v>727</v>
@@ -7501,7 +7495,7 @@
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>729</v>
@@ -7514,7 +7508,7 @@
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>731</v>
@@ -7527,7 +7521,7 @@
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="D321" s="7" t="s">
         <v>733</v>
@@ -7540,7 +7534,7 @@
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="D322" s="7" t="s">
         <v>735</v>
@@ -7553,7 +7547,7 @@
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>737</v>
@@ -7564,10 +7558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
       <c r="A324" s="5"/>
-      <c r="B324" s="5"/>
-      <c r="C324" s="6">
-        <v>2507</v>
-      </c>
+      <c r="B324" s="5">
+        <v>26</v>
+      </c>
+      <c r="C324" s="6"/>
       <c r="D324" s="7" t="s">
         <v>739</v>
       </c>
@@ -7577,10 +7571,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
       <c r="A325" s="5"/>
-      <c r="B325" s="5">
-        <v>26</v>
-      </c>
-      <c r="C325" s="6"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="6">
+        <v>2601</v>
+      </c>
       <c r="D325" s="7" t="s">
         <v>741</v>
       </c>
@@ -7592,7 +7586,7 @@
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="D326" s="7" t="s">
         <v>743</v>
@@ -7605,7 +7599,7 @@
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="D327" s="7" t="s">
         <v>745</v>
@@ -7618,7 +7612,7 @@
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="D328" s="7" t="s">
         <v>747</v>
@@ -7631,7 +7625,7 @@
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="D329" s="7" t="s">
         <v>749</v>
@@ -7644,7 +7638,7 @@
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="D330" s="7" t="s">
         <v>751</v>
@@ -7657,7 +7651,7 @@
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>753</v>
@@ -7670,7 +7664,7 @@
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="D332" s="7" t="s">
         <v>755</v>
@@ -7683,7 +7677,7 @@
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="D333" s="7" t="s">
         <v>757</v>
@@ -7696,7 +7690,7 @@
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="D334" s="7" t="s">
         <v>759</v>
@@ -7709,7 +7703,7 @@
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>761</v>
@@ -7720,10 +7714,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
       <c r="A336" s="5"/>
-      <c r="B336" s="5"/>
-      <c r="C336" s="6">
-        <v>2611</v>
-      </c>
+      <c r="B336" s="5">
+        <v>27</v>
+      </c>
+      <c r="C336" s="6"/>
       <c r="D336" s="7" t="s">
         <v>763</v>
       </c>
@@ -7733,10 +7727,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="5"/>
-      <c r="B337" s="5">
-        <v>27</v>
-      </c>
-      <c r="C337" s="6"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="6">
+        <v>2701</v>
+      </c>
       <c r="D337" s="7" t="s">
         <v>765</v>
       </c>
@@ -7748,33 +7742,33 @@
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="D340" s="7" t="s">
         <v>769</v>
@@ -7787,7 +7781,7 @@
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="D341" s="7" t="s">
         <v>771</v>
@@ -7800,7 +7794,7 @@
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="D342" s="7" t="s">
         <v>773</v>
@@ -7813,7 +7807,7 @@
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="D343" s="7" t="s">
         <v>775</v>
@@ -7826,7 +7820,7 @@
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="D344" s="7" t="s">
         <v>777</v>
@@ -7839,7 +7833,7 @@
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="D345" s="7" t="s">
         <v>779</v>
@@ -7852,7 +7846,7 @@
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="D346" s="7" t="s">
         <v>781</v>
@@ -7865,7 +7859,7 @@
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="D347" s="7" t="s">
         <v>783</v>
@@ -7878,7 +7872,7 @@
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="D348" s="7" t="s">
         <v>785</v>
@@ -7891,7 +7885,7 @@
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="D349" s="7" t="s">
         <v>787</v>
@@ -7904,7 +7898,7 @@
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="D350" s="7" t="s">
         <v>789</v>
@@ -7917,7 +7911,7 @@
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="D351" s="7" t="s">
         <v>791</v>
@@ -7930,7 +7924,7 @@
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="D352" s="7" t="s">
         <v>793</v>
@@ -7941,10 +7935,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="5"/>
-      <c r="B353" s="5"/>
-      <c r="C353" s="6">
-        <v>2716</v>
-      </c>
+      <c r="B353" s="5">
+        <v>28</v>
+      </c>
+      <c r="C353" s="6"/>
       <c r="D353" s="7" t="s">
         <v>795</v>
       </c>
@@ -7954,10 +7948,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
       <c r="A354" s="5"/>
-      <c r="B354" s="5">
-        <v>28</v>
-      </c>
-      <c r="C354" s="6"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="6">
+        <v>2801</v>
+      </c>
       <c r="D354" s="7" t="s">
         <v>797</v>
       </c>
@@ -7969,7 +7963,7 @@
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="D355" s="7" t="s">
         <v>799</v>
@@ -7982,7 +7976,7 @@
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="D356" s="7" t="s">
         <v>801</v>
@@ -7995,7 +7989,7 @@
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="D357" s="7" t="s">
         <v>803</v>
@@ -8008,7 +8002,7 @@
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="D358" s="7" t="s">
         <v>805</v>
@@ -8021,7 +8015,7 @@
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="D359" s="7" t="s">
         <v>807</v>
@@ -8034,7 +8028,7 @@
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="D360" s="7" t="s">
         <v>809</v>
@@ -8047,7 +8041,7 @@
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="D361" s="7" t="s">
         <v>811</v>
@@ -8060,7 +8054,7 @@
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="6">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D362" s="7" t="s">
         <v>813</v>
@@ -8073,7 +8067,7 @@
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="D363" s="7" t="s">
         <v>815</v>
@@ -8086,7 +8080,7 @@
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="D364" s="7" t="s">
         <v>817</v>
@@ -8097,10 +8091,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
       <c r="A365" s="5"/>
-      <c r="B365" s="5"/>
-      <c r="C365" s="6">
-        <v>2811</v>
-      </c>
+      <c r="B365" s="5">
+        <v>29</v>
+      </c>
+      <c r="C365" s="6"/>
       <c r="D365" s="7" t="s">
         <v>819</v>
       </c>
@@ -8110,10 +8104,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
       <c r="A366" s="5"/>
-      <c r="B366" s="5">
-        <v>29</v>
-      </c>
-      <c r="C366" s="6"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="6">
+        <v>2901</v>
+      </c>
       <c r="D366" s="7" t="s">
         <v>821</v>
       </c>
@@ -8125,7 +8119,7 @@
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="D367" s="7" t="s">
         <v>823</v>
@@ -8138,7 +8132,7 @@
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="D368" s="7" t="s">
         <v>825</v>
@@ -8151,7 +8145,7 @@
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="D369" s="7" t="s">
         <v>827</v>
@@ -8164,7 +8158,7 @@
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="D370" s="7" t="s">
         <v>829</v>
@@ -8177,7 +8171,7 @@
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="6">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="D371" s="7" t="s">
         <v>831</v>
@@ -8190,7 +8184,7 @@
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="D372" s="7" t="s">
         <v>833</v>
@@ -8203,7 +8197,7 @@
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="D373" s="7" t="s">
         <v>835</v>
@@ -8216,36 +8210,36 @@
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="D374" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="E374" s="8" t="s">
         <v>837</v>
-      </c>
-      <c r="E374" s="8" t="s">
-        <v>838</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>655</v>
+        <v>529</v>
       </c>
       <c r="E375" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>531</v>
+        <v>839</v>
       </c>
       <c r="E376" s="8" t="s">
         <v>840</v>
@@ -8255,7 +8249,7 @@
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="D377" s="7" t="s">
         <v>841</v>
@@ -8268,7 +8262,7 @@
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="D378" s="7" t="s">
         <v>843</v>
@@ -8281,7 +8275,7 @@
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="D379" s="7" t="s">
         <v>845</v>
@@ -8294,7 +8288,7 @@
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="D380" s="7" t="s">
         <v>847</v>
@@ -8305,10 +8299,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
       <c r="A381" s="5"/>
-      <c r="B381" s="5"/>
-      <c r="C381" s="6">
-        <v>2915</v>
-      </c>
+      <c r="B381" s="5">
+        <v>30</v>
+      </c>
+      <c r="C381" s="6"/>
       <c r="D381" s="7" t="s">
         <v>849</v>
       </c>
@@ -8318,10 +8312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
       <c r="A382" s="5"/>
-      <c r="B382" s="5">
-        <v>30</v>
-      </c>
-      <c r="C382" s="6"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="6">
+        <v>3001</v>
+      </c>
       <c r="D382" s="7" t="s">
         <v>851</v>
       </c>
@@ -8333,7 +8327,7 @@
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="D383" s="7" t="s">
         <v>853</v>
@@ -8346,7 +8340,7 @@
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D384" s="7" t="s">
         <v>855</v>
@@ -8359,7 +8353,7 @@
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="D385" s="7" t="s">
         <v>857</v>
@@ -8372,7 +8366,7 @@
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="D386" s="7" t="s">
         <v>859</v>
@@ -8385,7 +8379,7 @@
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D387" s="7" t="s">
         <v>861</v>
@@ -8398,7 +8392,7 @@
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="D388" s="7" t="s">
         <v>863</v>
@@ -8411,7 +8405,7 @@
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="D389" s="7" t="s">
         <v>865</v>
@@ -8424,7 +8418,7 @@
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="6">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="D390" s="7" t="s">
         <v>867</v>
@@ -8437,7 +8431,7 @@
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="D391" s="7" t="s">
         <v>869</v>
@@ -8450,7 +8444,7 @@
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="D392" s="7" t="s">
         <v>871</v>
@@ -8463,7 +8457,7 @@
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D393" s="7" t="s">
         <v>873</v>
@@ -8476,7 +8470,7 @@
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="D394" s="7" t="s">
         <v>875</v>
@@ -8489,7 +8483,7 @@
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="D395" s="7" t="s">
         <v>877</v>
@@ -8500,10 +8494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
       <c r="A396" s="5"/>
-      <c r="B396" s="5"/>
-      <c r="C396" s="6">
-        <v>3014</v>
-      </c>
+      <c r="B396" s="5">
+        <v>31</v>
+      </c>
+      <c r="C396" s="6"/>
       <c r="D396" s="7" t="s">
         <v>879</v>
       </c>
@@ -8513,10 +8507,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
       <c r="A397" s="5"/>
-      <c r="B397" s="5">
-        <v>31</v>
-      </c>
-      <c r="C397" s="6"/>
+      <c r="B397" s="5"/>
+      <c r="C397" s="6">
+        <v>3101</v>
+      </c>
       <c r="D397" s="7" t="s">
         <v>881</v>
       </c>
@@ -8528,7 +8522,7 @@
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="D398" s="7" t="s">
         <v>883</v>
@@ -8541,33 +8535,33 @@
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D399" s="7" t="s">
-        <v>885</v>
+        <v>365</v>
       </c>
       <c r="E399" s="8" t="s">
-        <v>886</v>
+        <v>366</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="D400" s="7" t="s">
-        <v>367</v>
+        <v>885</v>
       </c>
       <c r="E400" s="8" t="s">
-        <v>368</v>
+        <v>886</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="6">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D401" s="7" t="s">
         <v>887</v>
@@ -8580,7 +8574,7 @@
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="D402" s="7" t="s">
         <v>889</v>
@@ -8593,7 +8587,7 @@
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="D403" s="7" t="s">
         <v>891</v>
@@ -8604,10 +8598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
       <c r="A404" s="5"/>
-      <c r="B404" s="5"/>
-      <c r="C404" s="6">
-        <v>3107</v>
-      </c>
+      <c r="B404" s="5">
+        <v>32</v>
+      </c>
+      <c r="C404" s="6"/>
       <c r="D404" s="7" t="s">
         <v>893</v>
       </c>
@@ -8617,10 +8611,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
       <c r="A405" s="5"/>
-      <c r="B405" s="5">
-        <v>32</v>
-      </c>
-      <c r="C405" s="6"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="6">
+        <v>3201</v>
+      </c>
       <c r="D405" s="7" t="s">
         <v>895</v>
       </c>
@@ -8632,7 +8626,7 @@
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D406" s="7" t="s">
         <v>897</v>
@@ -8645,7 +8639,7 @@
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="D407" s="7" t="s">
         <v>899</v>
@@ -8658,7 +8652,7 @@
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>901</v>
@@ -8671,7 +8665,7 @@
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="D409" s="7" t="s">
         <v>903</v>
@@ -8684,7 +8678,7 @@
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="D410" s="7" t="s">
         <v>905</v>
@@ -8697,7 +8691,7 @@
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="D411" s="7" t="s">
         <v>907</v>
@@ -8710,7 +8704,7 @@
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="D412" s="7" t="s">
         <v>909</v>
@@ -8723,7 +8717,7 @@
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="D413" s="7" t="s">
         <v>911</v>
@@ -8736,7 +8730,7 @@
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>913</v>
@@ -8749,7 +8743,7 @@
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="D415" s="7" t="s">
         <v>915</v>
@@ -8762,7 +8756,7 @@
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>917</v>
@@ -8775,7 +8769,7 @@
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="D417" s="7" t="s">
         <v>919</v>
@@ -8788,7 +8782,7 @@
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="D418" s="7" t="s">
         <v>921</v>
@@ -8801,7 +8795,7 @@
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="6">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="D419" s="7" t="s">
         <v>923</v>
@@ -8814,7 +8808,7 @@
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="6">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="D420" s="7" t="s">
         <v>925</v>
@@ -8825,10 +8819,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
       <c r="A421" s="5"/>
-      <c r="B421" s="5"/>
-      <c r="C421" s="6">
-        <v>3216</v>
-      </c>
+      <c r="B421" s="5">
+        <v>33</v>
+      </c>
+      <c r="C421" s="6"/>
       <c r="D421" s="7" t="s">
         <v>927</v>
       </c>
@@ -8838,10 +8832,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
       <c r="A422" s="5"/>
-      <c r="B422" s="5">
-        <v>33</v>
-      </c>
-      <c r="C422" s="6"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="6">
+        <v>3301</v>
+      </c>
       <c r="D422" s="7" t="s">
         <v>929</v>
       </c>
@@ -8853,7 +8847,7 @@
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="D423" s="7" t="s">
         <v>931</v>
@@ -8866,7 +8860,7 @@
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="D424" s="7" t="s">
         <v>933</v>
@@ -8879,7 +8873,7 @@
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="D425" s="7" t="s">
         <v>935</v>
@@ -8892,7 +8886,7 @@
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="D426" s="7" t="s">
         <v>937</v>
@@ -8905,7 +8899,7 @@
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="D427" s="7" t="s">
         <v>939</v>
@@ -8918,7 +8912,7 @@
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="D428" s="7" t="s">
         <v>941</v>
@@ -8931,7 +8925,7 @@
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D429" s="7" t="s">
         <v>943</v>
@@ -8944,7 +8938,7 @@
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="D430" s="7" t="s">
         <v>945</v>
@@ -8957,7 +8951,7 @@
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="D431" s="7" t="s">
         <v>947</v>
@@ -8970,7 +8964,7 @@
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="D432" s="7" t="s">
         <v>949</v>
@@ -8981,10 +8975,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
       <c r="A433" s="5"/>
-      <c r="B433" s="5"/>
-      <c r="C433" s="6">
-        <v>3311</v>
-      </c>
+      <c r="B433" s="5">
+        <v>34</v>
+      </c>
+      <c r="C433" s="6"/>
       <c r="D433" s="7" t="s">
         <v>951</v>
       </c>
@@ -8994,10 +8988,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
       <c r="A434" s="5"/>
-      <c r="B434" s="5">
-        <v>34</v>
-      </c>
-      <c r="C434" s="6"/>
+      <c r="B434" s="5"/>
+      <c r="C434" s="6">
+        <v>3401</v>
+      </c>
       <c r="D434" s="7" t="s">
         <v>953</v>
       </c>
@@ -9009,7 +9003,7 @@
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>955</v>
@@ -9022,7 +9016,7 @@
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="6">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="D436" s="7" t="s">
         <v>957</v>
@@ -9035,7 +9029,7 @@
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="D437" s="7" t="s">
         <v>959</v>
@@ -9048,7 +9042,7 @@
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="D438" s="7" t="s">
         <v>961</v>
@@ -9061,7 +9055,7 @@
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="D439" s="7" t="s">
         <v>963</v>
@@ -9072,10 +9066,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
       <c r="A440" s="5"/>
-      <c r="B440" s="5"/>
-      <c r="C440" s="6">
-        <v>3406</v>
-      </c>
+      <c r="B440" s="5">
+        <v>90</v>
+      </c>
+      <c r="C440" s="6"/>
       <c r="D440" s="7" t="s">
         <v>965</v>
       </c>
@@ -9085,23 +9079,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
       <c r="A441" s="5"/>
-      <c r="B441" s="5">
-        <v>90</v>
-      </c>
-      <c r="C441" s="6"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="6">
+        <v>9000</v>
+      </c>
       <c r="D441" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E441" s="8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
       <c r="A442" s="5"/>
-      <c r="B442" s="5"/>
-      <c r="C442" s="6">
-        <v>9000</v>
-      </c>
+      <c r="B442" s="5">
+        <v>95</v>
+      </c>
+      <c r="C442" s="6"/>
       <c r="D442" s="7" t="s">
         <v>967</v>
       </c>
@@ -9111,28 +9105,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
       <c r="A443" s="5"/>
-      <c r="B443" s="5">
-        <v>95</v>
-      </c>
-      <c r="C443" s="6"/>
+      <c r="B443" s="5"/>
+      <c r="C443" s="6">
+        <v>9500</v>
+      </c>
       <c r="D443" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E443" s="8" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
-      <c r="A444" s="5"/>
-      <c r="B444" s="5"/>
-      <c r="C444" s="6">
-        <v>9500</v>
-      </c>
-      <c r="D444" s="7" t="s">
-        <v>969</v>
-      </c>
-      <c r="E444" s="8" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
